--- a/src/main/java/Excel/test.xlsx
+++ b/src/main/java/Excel/test.xlsx
@@ -299,16 +299,16 @@
         <v>-0.9950319151394069</v>
       </c>
       <c r="C10" t="n" s="0">
+        <v>0.9832735722884536</v>
+      </c>
+      <c r="D10" t="n" s="0">
         <v>0.1184475997140435</v>
       </c>
-      <c r="D10" t="n" s="0">
+      <c r="E10" t="n" s="0">
+        <v>0.9917113389539829</v>
+      </c>
+      <c r="F10" t="n" s="0">
         <v>-2.9173839685832395</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>0.12587667983704473</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>-5.415610961439388</v>
       </c>
     </row>
     <row r="11">
@@ -316,16 +316,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>0.9832735722884536</v>
+        <v>10.625527530777841</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>0.9917113389539829</v>
+        <v>0.12587667983704473</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>10.625527530777841</v>
+        <v>0.9662961962314939</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>0.9662961962314939</v>
+        <v>-5.415610961439388</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>12.23548149681692</v>
